--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail13 Features.xlsx
@@ -3215,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,29 +3226,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3269,115 +3267,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3394,72 +3382,66 @@
         <v>2.005376718252536e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.09751733674476373</v>
+        <v>6.716450293314277e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.23280431447646</v>
+        <v>1.368134595437648e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.716450293314277e-07</v>
+        <v>-0.0558736401913005</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.368134595437648e-06</v>
+        <v>0.1498937100262182</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0558736401913005</v>
+        <v>0.02553667845552763</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1498937100262182</v>
+        <v>1.921420598614565</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02553667845552763</v>
+        <v>2.700603001484933</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.949305274274765</v>
+        <v>5.217310025899007</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.700603001484933</v>
+        <v>1.158463357231211e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.217310025899007</v>
+        <v>5340389223.462051</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.158463357231211e-17</v>
+        <v>2.249006481784586e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5340389223.462051</v>
+        <v>330.3909350890984</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.249006481784586e-08</v>
+        <v>0.0001409289321800159</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>330.3909350890984</v>
+        <v>9.485790939661456</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001409289321800159</v>
+        <v>1.399985096466528</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.485790939661456</v>
+        <v>0.01268081769611577</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.399985096466528</v>
+        <v>3.835043266045993</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01268081769611577</v>
+        <v>0.9566596653980578</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.835043266045993</v>
+        <v>1.134036419373717</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9566596653980578</v>
+        <v>52</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.134036419373717</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.190386435872892</v>
       </c>
     </row>
@@ -3474,72 +3456,66 @@
         <v>2.012691394981278e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1323795690138211</v>
+        <v>6.559820282704042e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.210337079271081</v>
+        <v>1.358264059612605e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.559820282704042e-07</v>
+        <v>-0.04332228056852475</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.358264059612605e-06</v>
+        <v>0.1174790529282376</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04332228056852475</v>
+        <v>0.01565417874234012</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1174790529282376</v>
+        <v>1.921726466082073</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01565417874234012</v>
+        <v>2.473457456353917</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.949402048725259</v>
+        <v>4.950249431179862</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.473457456353917</v>
+        <v>1.970883264399238e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.950249431179862</v>
+        <v>3150569940.347787</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.970883264399238e-17</v>
+        <v>3.814858110112756e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3150569940.347787</v>
+        <v>195.631665323343</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.814858110112756e-08</v>
+        <v>0.0001813253614403737</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>195.631665323343</v>
+        <v>12.10534339186763</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001813253614403737</v>
+        <v>1.23043869920029</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.10534339186763</v>
+        <v>0.02657129854323074</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.23043869920029</v>
+        <v>3.686485902376784</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02657129854323074</v>
+        <v>0.9574978715053621</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.686485902376784</v>
+        <v>1.147171083035726</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574978715053621</v>
+        <v>52</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.147171083035726</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.648148410709328</v>
       </c>
     </row>
@@ -3554,72 +3530,66 @@
         <v>2.039934979532745e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1749340767933793</v>
+        <v>6.578911165449141e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.20384736778587</v>
+        <v>1.35041173535297e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.578911165449141e-07</v>
+        <v>-0.03495585290121158</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.35041173535297e-06</v>
+        <v>0.1008513442902957</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03495585290121158</v>
+        <v>0.01138484577172424</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1008513442902957</v>
+        <v>1.910342077449145</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01138484577172424</v>
+        <v>2.291783684162813</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.933060815899332</v>
+        <v>4.38477648231895</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.291783684162813</v>
+        <v>2.746868082972426e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.38477648231895</v>
+        <v>2272580630.584717</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.746868082972426e-17</v>
+        <v>5.275090717531934e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2272580630.584717</v>
+        <v>141.8653731705366</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.275090717531934e-08</v>
+        <v>0.0001988484538627242</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>141.8653731705366</v>
+        <v>13.73716136631809</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001988484538627242</v>
+        <v>1.042547437522568</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.73716136631809</v>
+        <v>0.037524612667137</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.042547437522568</v>
+        <v>3.25724431448451</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.037524612667137</v>
+        <v>0.958158676117416</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.25724431448451</v>
+        <v>1.221397870247774</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.958158676117416</v>
+        <v>52</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.221397870247774</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.114679976750506</v>
       </c>
     </row>
@@ -3634,72 +3604,66 @@
         <v>2.072594656562786e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.208758233909548</v>
+        <v>6.587544117194387e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.217306685598381</v>
+        <v>1.343758004515687e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.587544117194387e-07</v>
+        <v>-0.0304045015315321</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.343758004515687e-06</v>
+        <v>0.09516833223777316</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0304045015315321</v>
+        <v>0.009980303581361696</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09516833223777316</v>
+        <v>1.905909722810107</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.009980303581361696</v>
+        <v>2.106636550188279</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.929163055350365</v>
+        <v>4.453965891943701</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.106636550188279</v>
+        <v>2.662189393169934e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.453965891943701</v>
+        <v>2407612725.932149</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.662189393169934e-17</v>
+        <v>4.986046196692901e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2407612725.932149</v>
+        <v>154.3164447561015</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.986046196692901e-08</v>
+        <v>0.0001797950697538582</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>154.3164447561015</v>
+        <v>12.84211128264699</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001797950697538582</v>
+        <v>0.9979330548210431</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.84211128264699</v>
+        <v>0.0296517709355038</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9979330548210431</v>
+        <v>3.040769899218623</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0296517709355038</v>
+        <v>0.9561308971155643</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.040769899218623</v>
+        <v>1.300483620660165</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9561308971155643</v>
+        <v>42</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.300483620660165</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.562921575525753</v>
       </c>
     </row>
@@ -4076,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.459221702266561</v>
+        <v>1.483971565112033</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.240093664253713</v>
@@ -4165,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.467530674860655</v>
+        <v>1.492418060215229</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.138222491792781</v>
@@ -4254,7 +4218,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.499372843083526</v>
+        <v>1.5250677633115</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.352889164846783</v>
@@ -4343,7 +4307,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.49541656998295</v>
+        <v>1.520976564737393</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.244851958048762</v>
@@ -4432,7 +4396,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535580309531332</v>
+        <v>1.559237563992358</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.366637907665775</v>
@@ -4521,7 +4485,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584291316670866</v>
+        <v>1.607270393183595</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.603060711515077</v>
@@ -4610,7 +4574,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.589325264848118</v>
+        <v>1.614733638434461</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.632632809241963</v>
@@ -4699,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603806103490198</v>
+        <v>1.632288339291775</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.662861078063207</v>
@@ -4788,7 +4752,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615781066934036</v>
+        <v>1.644407373946178</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.581574002490437</v>
@@ -4877,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.621169234084246</v>
+        <v>1.647809979139339</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.782486319779083</v>
@@ -4966,7 +4930,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.645580093433461</v>
+        <v>1.674350891115839</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.626198657207941</v>
@@ -5055,7 +5019,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.650700537621199</v>
+        <v>1.678097746391217</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.649457257493451</v>
@@ -5144,7 +5108,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605744162344912</v>
+        <v>1.630532293023047</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.447428462034095</v>
@@ -5233,7 +5197,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.563600267718196</v>
+        <v>1.593867975943716</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.474305234005406</v>
@@ -5322,7 +5286,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587840127418208</v>
+        <v>1.615910867841</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.19690158464279</v>
@@ -5411,7 +5375,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.614136407311645</v>
+        <v>1.638710834313718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.33630571712759</v>
@@ -5500,7 +5464,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572975552113141</v>
+        <v>1.593174637033373</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.479208837424076</v>
@@ -5589,7 +5553,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.575441782018904</v>
+        <v>1.590730793209969</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.527858031853163</v>
@@ -5678,7 +5642,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.558697437367805</v>
+        <v>1.572579112111936</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.397331484147815</v>
@@ -5767,7 +5731,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573484057915287</v>
+        <v>1.583875821976777</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.379841024543414</v>
@@ -5856,7 +5820,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.564294282548874</v>
+        <v>1.568185844502894</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.376103247939695</v>
@@ -5945,7 +5909,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.551907141065179</v>
+        <v>1.551350057710702</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.347348134778707</v>
@@ -6034,7 +5998,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.546799516627724</v>
+        <v>1.547683779834616</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.351682330447708</v>
@@ -6123,7 +6087,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.519333987719438</v>
+        <v>1.521301784689521</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342034281211685</v>
@@ -6212,7 +6176,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.518070931048337</v>
+        <v>1.519507861787362</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.382922887258342</v>
@@ -6301,7 +6265,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512256785880284</v>
+        <v>1.511417633205972</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.312417620513699</v>
@@ -6390,7 +6354,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.499831562281158</v>
+        <v>1.497856379644068</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.390102821596719</v>
@@ -6479,7 +6443,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.542172185285736</v>
+        <v>1.529434546439842</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.341783606190314</v>
@@ -6568,7 +6532,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562892628708576</v>
+        <v>1.551786375884467</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.716191447824875</v>
@@ -6657,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568988973056531</v>
+        <v>1.55425928813679</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.525651393317575</v>
@@ -6746,7 +6710,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.565200531730571</v>
+        <v>1.549327033128879</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.647112124117797</v>
@@ -6835,7 +6799,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629238198730045</v>
+        <v>1.608475568318919</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.867829991780409</v>
@@ -6924,7 +6888,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595933052245321</v>
+        <v>1.581320146142901</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.359983233226431</v>
@@ -7013,7 +6977,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615069844617694</v>
+        <v>1.593494229939812</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.543764432206912</v>
@@ -7102,7 +7066,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.597263298501532</v>
+        <v>1.586582826471146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.491238998962674</v>
@@ -7191,7 +7155,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.593841934205114</v>
+        <v>1.589650010006127</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.504224194566432</v>
@@ -7280,7 +7244,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596427296238889</v>
+        <v>1.593149642160844</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.465473221099266</v>
@@ -7369,7 +7333,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.598421061171801</v>
+        <v>1.594199287194516</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.4901333073257</v>
@@ -7458,7 +7422,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614896349267624</v>
+        <v>1.604976797791746</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.383817640324037</v>
@@ -7547,7 +7511,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.609596317240578</v>
+        <v>1.595907112008248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.4547210915497</v>
@@ -7636,7 +7600,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60432580337249</v>
+        <v>1.592842795895732</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.420899508017885</v>
@@ -7725,7 +7689,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.602654919566503</v>
+        <v>1.588532288262551</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.446736834322473</v>
@@ -7814,7 +7778,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.603050065660448</v>
+        <v>1.589610734081594</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.483602158895654</v>
@@ -7903,7 +7867,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.566111643154445</v>
+        <v>1.562329285388143</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.442151465803294</v>
@@ -7992,7 +7956,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.571697990552935</v>
+        <v>1.564443336970856</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.410556835633208</v>
@@ -8081,7 +8045,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.524584673446571</v>
+        <v>1.530745365045221</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.43140041384842</v>
@@ -8170,7 +8134,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.535903437814537</v>
+        <v>1.54301368667828</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.373484875281981</v>
@@ -8259,7 +8223,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575627598790904</v>
+        <v>1.587458384297292</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.499534047005403</v>
@@ -8348,7 +8312,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614643861603435</v>
+        <v>1.624302480332017</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.444608530009813</v>
@@ -8634,7 +8598,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.455181002100348</v>
+        <v>1.473239171278821</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.335945591379814</v>
@@ -8723,7 +8687,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.445479130418101</v>
+        <v>1.461738998037112</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.203566721928855</v>
@@ -8812,7 +8776,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.448638347454867</v>
+        <v>1.468280364493262</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.270241114976055</v>
@@ -8901,7 +8865,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461648596114811</v>
+        <v>1.483316131329976</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.244342547394124</v>
@@ -8990,7 +8954,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504804689143578</v>
+        <v>1.531372285985225</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.26785576223656</v>
@@ -9079,7 +9043,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561302225457457</v>
+        <v>1.586739976639867</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.535283775263857</v>
@@ -9168,7 +9132,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564610336961222</v>
+        <v>1.582518355030045</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.547702448688232</v>
@@ -9257,7 +9221,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598768709761798</v>
+        <v>1.616766757053348</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.992889214875697</v>
@@ -9346,7 +9310,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.608656615525543</v>
+        <v>1.629421947072154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.943503527112043</v>
@@ -9435,7 +9399,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.632640062760981</v>
+        <v>1.650664315036559</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.036690214029676</v>
@@ -9524,7 +9488,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.659583143268625</v>
+        <v>1.672205693652631</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.839836400831766</v>
@@ -9613,7 +9577,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.670403129478358</v>
+        <v>1.675226581405254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.645936016857054</v>
@@ -9702,7 +9666,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.641161059731885</v>
+        <v>1.637104045354184</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.878608979644859</v>
@@ -9791,7 +9755,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.629011940164993</v>
+        <v>1.631497873577092</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.785933114067737</v>
@@ -9880,7 +9844,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.599394713584192</v>
+        <v>1.606613012297892</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.944465296161398</v>
@@ -9969,7 +9933,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.5996040668874</v>
+        <v>1.611071256988647</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.030677600518974</v>
@@ -10058,7 +10022,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59299643604987</v>
+        <v>1.600336283899628</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.959538062873631</v>
@@ -10147,7 +10111,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.607154891990702</v>
+        <v>1.611028981962551</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.784219636941544</v>
@@ -10236,7 +10200,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606548437139055</v>
+        <v>1.603854299094178</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.994213801248013</v>
@@ -10325,7 +10289,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606340328244609</v>
+        <v>1.596806772507915</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.838121809490344</v>
@@ -10414,7 +10378,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590326901755917</v>
+        <v>1.575532254272384</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.82265424132637</v>
@@ -10503,7 +10467,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.583720638309675</v>
+        <v>1.569716191931349</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.748737531002882</v>
@@ -10592,7 +10556,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.582225574064974</v>
+        <v>1.566555511255709</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.92755978710473</v>
@@ -10681,7 +10645,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.566492054913938</v>
+        <v>1.548453125819445</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.859628147639323</v>
@@ -10770,7 +10734,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567129486472185</v>
+        <v>1.548826290236439</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.771693897169027</v>
@@ -10859,7 +10823,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.562217661433831</v>
+        <v>1.541310088547077</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.710641369810172</v>
@@ -10948,7 +10912,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571689769444001</v>
+        <v>1.555381779969202</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.618636509702951</v>
@@ -11037,7 +11001,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59506145633748</v>
+        <v>1.579235408678208</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.495027726310195</v>
@@ -11126,7 +11090,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612263345849075</v>
+        <v>1.594137667541072</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.725341683994348</v>
@@ -11215,7 +11179,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653784934766253</v>
+        <v>1.614990217114077</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.696892165154997</v>
@@ -11304,7 +11268,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653286113000718</v>
+        <v>1.612937635663418</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.704054713850239</v>
@@ -11393,7 +11357,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.690513457499746</v>
+        <v>1.645849817393354</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.404481308389007</v>
@@ -11482,7 +11446,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66193801181266</v>
+        <v>1.622583210607369</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.617732696648402</v>
@@ -11571,7 +11535,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.65819009677905</v>
+        <v>1.619436649346411</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.715264691827814</v>
@@ -11660,7 +11624,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.665057033309733</v>
+        <v>1.62519743817977</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.727136727290088</v>
@@ -11749,7 +11713,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667549276920709</v>
+        <v>1.627385861829083</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.750986750631356</v>
@@ -11838,7 +11802,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657719644885935</v>
+        <v>1.617936431727069</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.848333318927203</v>
@@ -11927,7 +11891,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660526529286939</v>
+        <v>1.616999268105971</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.743756996596376</v>
@@ -12016,7 +11980,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.675387404394114</v>
+        <v>1.630366845871035</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.838085875321694</v>
@@ -12105,7 +12069,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.667934241218337</v>
+        <v>1.614071022609897</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.783198786026631</v>
@@ -12194,7 +12158,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.671389001751089</v>
+        <v>1.620480917690802</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.89901945360071</v>
@@ -12283,7 +12247,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.658384505645247</v>
+        <v>1.608822029390926</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.738101139472558</v>
@@ -12372,7 +12336,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.667203592510639</v>
+        <v>1.618141304761151</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.885876501274404</v>
@@ -12461,7 +12425,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659182341685039</v>
+        <v>1.611627266000247</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.693543550824821</v>
@@ -12550,7 +12514,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.651334212689108</v>
+        <v>1.610575190374935</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.763063908095339</v>
@@ -12639,7 +12603,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.6309586586417</v>
+        <v>1.595507414738678</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.881584713071613</v>
@@ -12728,7 +12692,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635410632986934</v>
+        <v>1.599550904209797</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.642389254572054</v>
@@ -12817,7 +12781,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.664257765894924</v>
+        <v>1.62127516214372</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.247721418038308</v>
@@ -12906,7 +12870,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664903479425177</v>
+        <v>1.627175860244629</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.938799705183675</v>
@@ -13192,7 +13156,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.501732415192707</v>
+        <v>1.515934637355019</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.47108170150469</v>
@@ -13281,7 +13245,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.500060616303163</v>
+        <v>1.512280815509609</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.403094890385367</v>
@@ -13370,7 +13334,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.513140631181439</v>
+        <v>1.519937696528186</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.438100351781372</v>
@@ -13459,7 +13423,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.514648298658317</v>
+        <v>1.519751624757159</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.406742812458839</v>
@@ -13548,7 +13512,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553220338307731</v>
+        <v>1.554323217859723</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.362699519126647</v>
@@ -13637,7 +13601,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588138662067125</v>
+        <v>1.592146689894789</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.642302185931293</v>
@@ -13726,7 +13690,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.571147882579928</v>
+        <v>1.570918906072057</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.835220080370285</v>
@@ -13815,7 +13779,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.593137117159818</v>
+        <v>1.591369108623352</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.941690481228609</v>
@@ -13904,7 +13868,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.603108382452233</v>
+        <v>1.599538983546293</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.912289637338007</v>
@@ -13993,7 +13957,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.608163256226963</v>
+        <v>1.603600828981444</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.842710316335095</v>
@@ -14082,7 +14046,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62345516141223</v>
+        <v>1.612635525293258</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.797679149595198</v>
@@ -14171,7 +14135,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.618980890065744</v>
+        <v>1.607304970581833</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.909013766089003</v>
@@ -14260,7 +14224,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604896214175852</v>
+        <v>1.592361034831442</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.678467607864772</v>
@@ -14349,7 +14313,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.606539638262921</v>
+        <v>1.596882788420956</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.639922333428295</v>
@@ -14438,7 +14402,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.612290437080534</v>
+        <v>1.596238154798211</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.983027929661135</v>
@@ -14527,7 +14491,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.623358196694525</v>
+        <v>1.604167242007506</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.73941305819029</v>
@@ -14616,7 +14580,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607981376099827</v>
+        <v>1.587639896273031</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.190382707917126</v>
@@ -14705,7 +14669,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.611046182579418</v>
+        <v>1.584726623046917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.841756425246541</v>
@@ -14794,7 +14758,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.602063681681711</v>
+        <v>1.579087945164097</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.07340689448339</v>
@@ -14883,7 +14847,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600261776378831</v>
+        <v>1.577313048932377</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.16364113452278</v>
@@ -14972,7 +14936,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.587087197414775</v>
+        <v>1.558855089089896</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.15831832026382</v>
@@ -15061,7 +15025,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582302418364681</v>
+        <v>1.556473639712808</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.142817489188207</v>
@@ -15150,7 +15114,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.578470155839611</v>
+        <v>1.550111246125153</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.916064377094313</v>
@@ -15239,7 +15203,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.572577331065699</v>
+        <v>1.547497514038539</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.081376344501214</v>
@@ -15328,7 +15292,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.565247327850228</v>
+        <v>1.54100408114997</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.025427778360967</v>
@@ -15417,7 +15381,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.561859526556791</v>
+        <v>1.542858328711481</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.011319929052893</v>
@@ -15506,7 +15470,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.552299523138265</v>
+        <v>1.535285624659337</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.703177001145474</v>
@@ -15595,7 +15559,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556979641458598</v>
+        <v>1.540320823436899</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.954403382344442</v>
@@ -15684,7 +15648,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566564666953274</v>
+        <v>1.545534331951675</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.182258702993078</v>
@@ -15773,7 +15737,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.566098775673307</v>
+        <v>1.54689800949606</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.875094972480778</v>
@@ -15862,7 +15826,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567835718756665</v>
+        <v>1.548516618012716</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.128107794032006</v>
@@ -15951,7 +15915,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.601571214416214</v>
+        <v>1.579778876137088</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.545718286188016</v>
@@ -16040,7 +16004,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594742815265379</v>
+        <v>1.572004813741187</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.146049909371318</v>
@@ -16129,7 +16093,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606562513481784</v>
+        <v>1.579130166144738</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.18744434899271</v>
@@ -16218,7 +16182,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603383095445504</v>
+        <v>1.576662483843271</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.965882303146693</v>
@@ -16307,7 +16271,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.61806877887519</v>
+        <v>1.585635206395931</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.185209320071571</v>
@@ -16396,7 +16360,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.617712876424951</v>
+        <v>1.584816216695973</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.985101035569023</v>
@@ -16485,7 +16449,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612846166274827</v>
+        <v>1.585303896743052</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.346190870547949</v>
@@ -16574,7 +16538,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615681208606576</v>
+        <v>1.584289499883441</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.945972035909794</v>
@@ -16663,7 +16627,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.620795818134244</v>
+        <v>1.580913161296324</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.017906503101993</v>
@@ -16752,7 +16716,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.617565426081816</v>
+        <v>1.577466206011207</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.233790363030379</v>
@@ -16841,7 +16805,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620842320679188</v>
+        <v>1.578060913338119</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.242967891105643</v>
@@ -16930,7 +16894,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61647065243081</v>
+        <v>1.574618400913578</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.255413784683462</v>
@@ -17019,7 +16983,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.603882328717981</v>
+        <v>1.566482668644721</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.835541675396814</v>
@@ -17108,7 +17072,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.599436736088478</v>
+        <v>1.557576481331592</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.227058919137455</v>
@@ -17197,7 +17161,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.572906242041923</v>
+        <v>1.540018608769036</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.141654772946092</v>
@@ -17286,7 +17250,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.577724381776347</v>
+        <v>1.548141334319499</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.107224699399716</v>
@@ -17375,7 +17339,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.596730420246314</v>
+        <v>1.569884122291993</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.004532747776876</v>
@@ -17464,7 +17428,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608655238688102</v>
+        <v>1.57858277749164</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.948479575153539</v>
@@ -17750,7 +17714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521084591385299</v>
+        <v>1.52225301619449</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.556328449533728</v>
@@ -17839,7 +17803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515701705280118</v>
+        <v>1.518704713475553</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.472428623224519</v>
@@ -17928,7 +17892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.538277710085327</v>
+        <v>1.532364048211409</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.673370279748918</v>
@@ -18017,7 +17981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544992544483575</v>
+        <v>1.538075127354465</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.463081965113021</v>
@@ -18106,7 +18070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.585613948398119</v>
+        <v>1.574317770671745</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.602947863664132</v>
@@ -18195,7 +18159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610158482726988</v>
+        <v>1.59769903897394</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.435142271797754</v>
@@ -18284,7 +18248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.613104285986118</v>
+        <v>1.603673855638437</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.621939271524146</v>
@@ -18373,7 +18337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637650481806077</v>
+        <v>1.622291074198147</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.154055361801872</v>
@@ -18462,7 +18426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.648521791491338</v>
+        <v>1.629227546423623</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.119250051887732</v>
@@ -18551,7 +18515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.655393058855362</v>
+        <v>1.632255455731758</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.973612058899024</v>
@@ -18640,7 +18604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.661820034870779</v>
+        <v>1.633376008165896</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.087037050086877</v>
@@ -18729,7 +18693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.663284429238482</v>
+        <v>1.629452069617259</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.020885951643394</v>
@@ -18818,7 +18782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.651224716137026</v>
+        <v>1.616261231145966</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.026942253187479</v>
@@ -18907,7 +18871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668672373212202</v>
+        <v>1.634207223210173</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.746009684129003</v>
@@ -18996,7 +18960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654358605215426</v>
+        <v>1.61455306739132</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.969568139660252</v>
@@ -19085,7 +19049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.652068198541184</v>
+        <v>1.611014756964139</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.770769667689427</v>
@@ -19174,7 +19138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64151815756768</v>
+        <v>1.598499035556269</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.184184792664651</v>
@@ -19263,7 +19227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.65085493275409</v>
+        <v>1.603842931236829</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.220595348818265</v>
@@ -19352,7 +19316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64096895851133</v>
+        <v>1.595858420123344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.785533861143446</v>
@@ -19441,7 +19405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.634024329956369</v>
+        <v>1.586818044700027</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.313744854282318</v>
@@ -19530,7 +19494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628557387268516</v>
+        <v>1.579109905602137</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.258272807061787</v>
@@ -19619,7 +19583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624239451501322</v>
+        <v>1.569864192434901</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.817181277364228</v>
@@ -19708,7 +19672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.613307292814843</v>
+        <v>1.561008521260172</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.035629636600961</v>
@@ -19797,7 +19761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.599308444124934</v>
+        <v>1.550376348525605</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.139090252710032</v>
@@ -19886,7 +19850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595805362458806</v>
+        <v>1.550116394830879</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.013553923913968</v>
@@ -19975,7 +19939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591665604934743</v>
+        <v>1.54475877043256</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.958230850146267</v>
@@ -20064,7 +20028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.593108809737666</v>
+        <v>1.548577131007464</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.949321173599789</v>
@@ -20153,7 +20117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.600606646940339</v>
+        <v>1.554343238746216</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.879081691362875</v>
@@ -20242,7 +20206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.604977190505311</v>
+        <v>1.557064418908719</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.031172258486174</v>
@@ -20331,7 +20295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606801671278826</v>
+        <v>1.56064554529883</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.128292544467191</v>
@@ -20420,7 +20384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605213143987671</v>
+        <v>1.556049625273061</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.704097405028584</v>
@@ -20509,7 +20473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.648460612206375</v>
+        <v>1.585385105527199</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.110184536166386</v>
@@ -20598,7 +20562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.647116845564265</v>
+        <v>1.590213114122325</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.874826618959949</v>
@@ -20687,7 +20651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650234286537055</v>
+        <v>1.585173055121589</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.846340041485468</v>
@@ -20776,7 +20740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653709224358296</v>
+        <v>1.592972013515706</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.126559873933632</v>
@@ -20865,7 +20829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66129546894595</v>
+        <v>1.600056764118408</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.153809968190316</v>
@@ -20954,7 +20918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.660362204919442</v>
+        <v>1.598424049498447</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.038693737215987</v>
@@ -21043,7 +21007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.680282162136196</v>
+        <v>1.619570500124386</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.681060388613361</v>
@@ -21132,7 +21096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.684738770448052</v>
+        <v>1.62721272341188</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.960657130759139</v>
@@ -21221,7 +21185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681871536787723</v>
+        <v>1.620382378966336</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.001325004742371</v>
@@ -21310,7 +21274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.683347859365024</v>
+        <v>1.624253112715358</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.147321658125987</v>
@@ -21399,7 +21363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68084566161539</v>
+        <v>1.615321216974671</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.913959154421591</v>
@@ -21488,7 +21452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674242309970899</v>
+        <v>1.611138664497622</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.182969357275508</v>
@@ -21577,7 +21541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.676118727086988</v>
+        <v>1.608182939926589</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.90153425193474</v>
@@ -21666,7 +21630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679158379992298</v>
+        <v>1.614077008719394</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.996228239099021</v>
@@ -21755,7 +21719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.656444344335423</v>
+        <v>1.598975883534823</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.022378616741889</v>
@@ -21844,7 +21808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.643658304996708</v>
+        <v>1.590981714899916</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.899688948595988</v>
@@ -21933,7 +21897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.658232931306124</v>
+        <v>1.599852713517214</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.917820221364424</v>
@@ -22022,7 +21986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.673496281284976</v>
+        <v>1.617468401529568</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.007212469236119</v>
@@ -22308,7 +22272,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494920392600283</v>
+        <v>1.484555531664074</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.406877228158731</v>
@@ -22397,7 +22361,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.493597866512274</v>
+        <v>1.483149443384388</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.403508961901041</v>
@@ -22486,7 +22450,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501603160909936</v>
+        <v>1.490810213667337</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.459622208050396</v>
@@ -22575,7 +22539,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507982623705006</v>
+        <v>1.502450338247286</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.439859030020323</v>
@@ -22664,7 +22628,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.549602299369354</v>
+        <v>1.550687893027416</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.466157333361647</v>
@@ -22753,7 +22717,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.58441462272701</v>
+        <v>1.579403802056407</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.708803385592595</v>
@@ -22842,7 +22806,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584956591064802</v>
+        <v>1.5790897442188</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.898170350024905</v>
@@ -22931,7 +22895,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608907825586699</v>
+        <v>1.603945921947264</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.813150955536394</v>
@@ -23020,7 +22984,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61026252971778</v>
+        <v>1.611437856302413</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.011620141409585</v>
@@ -23109,7 +23073,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.615035888556591</v>
+        <v>1.615132540784473</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.093956198586997</v>
@@ -23198,7 +23162,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.633936686279452</v>
+        <v>1.625867398077409</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.595980831190476</v>
@@ -23287,7 +23251,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.631996687239557</v>
+        <v>1.618514835164705</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.529045372192429</v>
@@ -23376,7 +23340,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620971317868339</v>
+        <v>1.599471149171686</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.893348210847436</v>
@@ -23465,7 +23429,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.602634072270478</v>
+        <v>1.594035641397103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.19097664423726</v>
@@ -23554,7 +23518,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576054226053983</v>
+        <v>1.567292846947721</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.957920625335039</v>
@@ -23643,7 +23607,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567501944449376</v>
+        <v>1.558768496260442</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.81511976819626</v>
@@ -23732,7 +23696,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.56219041048803</v>
+        <v>1.546011482586156</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.803693169919189</v>
@@ -23821,7 +23785,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557355888105936</v>
+        <v>1.542260403861766</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.547277185486262</v>
@@ -23910,7 +23874,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.559152278239038</v>
+        <v>1.541843768056495</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.827308000544875</v>
@@ -23999,7 +23963,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.562572654844285</v>
+        <v>1.54473588156751</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.905992524254265</v>
@@ -24088,7 +24052,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.557180098524503</v>
+        <v>1.542390906589695</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.806901019245216</v>
@@ -24177,7 +24141,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.549181967923621</v>
+        <v>1.538291693462553</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.640444839005538</v>
@@ -24266,7 +24230,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542195626051775</v>
+        <v>1.525769058663141</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.775443681215569</v>
@@ -24355,7 +24319,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.539878180167546</v>
+        <v>1.517388098418181</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.605978917176917</v>
@@ -24444,7 +24408,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.546448793737785</v>
+        <v>1.519796721491923</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.742106330794554</v>
@@ -24533,7 +24497,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.551385547703213</v>
+        <v>1.52539301495653</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.814996238698197</v>
@@ -24622,7 +24586,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.563191341137516</v>
+        <v>1.533575100326651</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.881718791236529</v>
@@ -24711,7 +24675,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.566746652988885</v>
+        <v>1.536566131484742</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.448201192691527</v>
@@ -24800,7 +24764,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581475889751303</v>
+        <v>1.541138038640575</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.689433561772155</v>
@@ -24889,7 +24853,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.602720497975249</v>
+        <v>1.558928684025372</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.187256556586129</v>
@@ -24978,7 +24942,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612343182016376</v>
+        <v>1.562181745908122</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.053155061265195</v>
@@ -25067,7 +25031,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62667165111977</v>
+        <v>1.575011530610754</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.594501644542355</v>
@@ -25156,7 +25120,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.641115780843261</v>
+        <v>1.579220420570822</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.308122843125656</v>
@@ -25245,7 +25209,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642481753765247</v>
+        <v>1.58344307478021</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.65289508754826</v>
@@ -25334,7 +25298,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.635401661565291</v>
+        <v>1.570372279180218</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.772018359828312</v>
@@ -25423,7 +25387,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.632566870048615</v>
+        <v>1.565715004011231</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.473930844550836</v>
@@ -25512,7 +25476,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6214441288943</v>
+        <v>1.551117837876481</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.204133156747832</v>
@@ -25601,7 +25565,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.621803630825104</v>
+        <v>1.555965761023743</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.380215882948351</v>
@@ -25690,7 +25654,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.617397423813296</v>
+        <v>1.55515148281947</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.361971965195123</v>
@@ -25779,7 +25743,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.615523766496602</v>
+        <v>1.548291402147026</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.122151434453917</v>
@@ -25868,7 +25832,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.606323566869118</v>
+        <v>1.541102304545421</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.35347210604466</v>
@@ -25957,7 +25921,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.590410524888187</v>
+        <v>1.528650026212194</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.182469361823378</v>
@@ -26046,7 +26010,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.606471374649142</v>
+        <v>1.54790435159316</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.201717978120836</v>
@@ -26135,7 +26099,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610820210426261</v>
+        <v>1.554799869364794</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.990793270304034</v>
@@ -26224,7 +26188,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.597219221909976</v>
+        <v>1.549798890323963</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.363297382222137</v>
@@ -26313,7 +26277,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595986499727136</v>
+        <v>1.550029352175693</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.925498084388646</v>
@@ -26402,7 +26366,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590516985566802</v>
+        <v>1.549230977139651</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.10144837071253</v>
@@ -26491,7 +26455,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.591598461062166</v>
+        <v>1.559576310062665</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.129664774402361</v>
@@ -26580,7 +26544,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.590201096376373</v>
+        <v>1.558760459481582</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.712178423334326</v>
@@ -26866,7 +26830,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.398109365792948</v>
+        <v>1.408737693700148</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.19257331617476</v>
@@ -26955,7 +26919,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.400637332416323</v>
+        <v>1.413313555086249</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.088308075082925</v>
@@ -27044,7 +27008,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.451643464714866</v>
+        <v>1.457653882816337</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.426877458677106</v>
@@ -27133,7 +27097,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.472480515026756</v>
+        <v>1.477062806220198</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.42377973576856</v>
@@ -27222,7 +27186,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502708427710985</v>
+        <v>1.503811419441307</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.406976592498976</v>
@@ -27311,7 +27275,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.524515229740574</v>
+        <v>1.525156077826236</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.610023855940784</v>
@@ -27400,7 +27364,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.528823529252155</v>
+        <v>1.531864002263717</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.684150172914067</v>
@@ -27489,7 +27453,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.547920160432707</v>
+        <v>1.544909419546443</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.464379895328332</v>
@@ -27578,7 +27542,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544960465385262</v>
+        <v>1.542105405697874</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.38664349227527</v>
@@ -27667,7 +27631,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536103396388202</v>
+        <v>1.530891217138767</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.555459181807527</v>
@@ -27756,7 +27720,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.557880595372449</v>
+        <v>1.549989163985798</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.528993675993573</v>
@@ -27845,7 +27809,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.559357596235946</v>
+        <v>1.548302003455446</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.3597741292433</v>
@@ -27934,7 +27898,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537217142461417</v>
+        <v>1.525455751790814</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.466109798149928</v>
@@ -28023,7 +27987,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.522543546560631</v>
+        <v>1.516997701854608</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.750879415339285</v>
@@ -28112,7 +28076,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539597978373412</v>
+        <v>1.530160206202305</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.284859951155444</v>
@@ -28201,7 +28165,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556933560050567</v>
+        <v>1.552329957148957</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.40411844569402</v>
@@ -28290,7 +28254,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.532313289220961</v>
+        <v>1.521437268601253</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.579638376201386</v>
@@ -28379,7 +28343,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.527163372615134</v>
+        <v>1.51660219438596</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.608138813721063</v>
@@ -28468,7 +28432,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.51336065419052</v>
+        <v>1.503376384254892</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.666493239127677</v>
@@ -28557,7 +28521,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.527191577290441</v>
+        <v>1.512481317436862</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.713251235298289</v>
@@ -28646,7 +28610,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520365294107357</v>
+        <v>1.50087257674438</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.546150542413332</v>
@@ -28735,7 +28699,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525902815662335</v>
+        <v>1.504127714239028</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.607047759315548</v>
@@ -28824,7 +28788,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.512336893628947</v>
+        <v>1.493793103462161</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.593916941298225</v>
@@ -28913,7 +28877,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.49604154648094</v>
+        <v>1.479331341481897</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.692356532589271</v>
@@ -29002,7 +28966,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.497938975346675</v>
+        <v>1.47850689842862</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.623512855679278</v>
@@ -29091,7 +29055,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.500127359143871</v>
+        <v>1.478898968593253</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.693273922672152</v>
@@ -29180,7 +29144,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493876024974682</v>
+        <v>1.467030450008343</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.665187152464084</v>
@@ -29269,7 +29233,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.514996362520074</v>
+        <v>1.482925239426981</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.616557118142235</v>
@@ -29358,7 +29322,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.517969608844802</v>
+        <v>1.487607101149796</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.73633113493672</v>
@@ -29447,7 +29411,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.528889985157064</v>
+        <v>1.495894697871302</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.710325836589421</v>
@@ -29536,7 +29500,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520637977915704</v>
+        <v>1.482842650597366</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.711427221402162</v>
@@ -29625,7 +29589,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.553539910138124</v>
+        <v>1.521878266561324</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.752458708358394</v>
@@ -29714,7 +29678,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527178428974101</v>
+        <v>1.500100591861876</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.306641286234403</v>
@@ -29803,7 +29767,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.54254735939997</v>
+        <v>1.508482888723425</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.717511315231608</v>
@@ -29892,7 +29856,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.516719398538691</v>
+        <v>1.499199397134807</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.697626407283628</v>
@@ -29981,7 +29945,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.518154668095333</v>
+        <v>1.500886289592689</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.508783176929542</v>
@@ -30070,7 +30034,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.503219184719487</v>
+        <v>1.487861589649656</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.582140287938597</v>
@@ -30159,7 +30123,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.508583413885426</v>
+        <v>1.491611940176001</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.668021893764401</v>
@@ -30248,7 +30212,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.518730498375497</v>
+        <v>1.499471705165564</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.59899572617691</v>
@@ -30337,7 +30301,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.523659306504185</v>
+        <v>1.511699704582919</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.494271144632192</v>
@@ -30426,7 +30390,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515473370319933</v>
+        <v>1.502592764996389</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.679590134635144</v>
@@ -30515,7 +30479,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.521828088978413</v>
+        <v>1.508330017990228</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.604592413743341</v>
@@ -30604,7 +30568,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.511156629680046</v>
+        <v>1.493164208690945</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.597160668727632</v>
@@ -30693,7 +30657,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.495448218407018</v>
+        <v>1.483460755708854</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.677153749230355</v>
@@ -30782,7 +30746,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.501915000544954</v>
+        <v>1.489594722478793</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.551316174603886</v>
@@ -30871,7 +30835,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.46141360242725</v>
+        <v>1.454827679764374</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.672955422051952</v>
@@ -30960,7 +30924,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.471048358391165</v>
+        <v>1.462159243294562</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.512985654926362</v>
@@ -31049,7 +31013,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.50579700064676</v>
+        <v>1.492666694295891</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.52021149781</v>
@@ -31138,7 +31102,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527465399518723</v>
+        <v>1.505506804137513</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.598270744308106</v>
